--- a/verification_examples/p5.xlsx
+++ b/verification_examples/p5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wcfro\Google Drive\Miscellaneous\Github\MSApy\verification_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01138B47-C465-4263-9499-300F3A1204B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8846EFD6-7923-404B-BD8F-713FC4D185CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6075" yWindow="-16320" windowWidth="30960" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6075" yWindow="-16320" windowWidth="30960" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER GUIDE" sheetId="7" r:id="rId1"/>
@@ -36833,9 +36833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF0ADE5-D8C3-441B-9F4B-356DFB8EEA2E}">
   <dimension ref="A1:D500"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -36863,6 +36863,9 @@
       <c r="A2" s="10">
         <v>1</v>
       </c>
+      <c r="C2" s="13">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="10">
@@ -39363,9 +39366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EF9AD7-4ED3-4BF7-88C8-A64347B6FCDF}">
   <dimension ref="A1:K504"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
